--- a/db/queries/predicted/NorthernPlainsFireManagement-N3-N3-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/NorthernPlainsFireManagement-N3-N3-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -504,14 +499,9 @@
           <t>tab_naturalness_modifier</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -575,14 +565,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'group by': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -647,14 +632,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'mpd'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'where': '1'}, {'predicate': '1'}, {'column': 'decay'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -718,14 +698,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'directions'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'trail'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -790,14 +765,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sitedescription'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'where': '1'}, {'predicate': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -862,14 +832,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'genus'}, {'select element': '1'}, {'column': 'species'}, {'select element': '1'}, {'column': 'commonname'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'event_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -934,14 +899,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'dbh'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'species'}, {'predicate': '1'}, {'column': 'event_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1005,14 +965,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'spcode'}, {'select element': '1'}, {'column': 'dclass1'}, {'select element': '1'}, {'column': 'dclass2'}, {'select element': '1'}, {'column': 'dclass3'}, {'select element': '1'}, {'column': 'dclass4'}, {'table source item': '1'}, {'table': 'tbl_saplings'}, {'where': '1'}, {'predicate': '1'}, {'column': 'spcode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1075,14 +1030,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'density'}, {'table source item': '1'}, {'table': 'tbl_seedlings'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'genus'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1146,14 +1096,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'location_id'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'density'}, {'table source item': '1'}, {'table': 'tbl_seedlings'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'genus'}, {'group by': '1'}, {'column': 'location_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1217,14 +1162,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'utme'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'utmn'}, {'table source item': '1'}, {'table': 'tlu_placenames'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'county'}, {'predicate': '1'}, {'column': 'state'}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1288,14 +1228,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'xcoord'}, {'select element': '1'}, {'column': 'ycoord'}, {'select element': '1'}, {'column': 'spcode'}, {'table source item': '1'}, {'table': 'tbl_tree_tags'}, {'where': '1'}, {'predicate': '1'}, {'column': 'tree_tag_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1361,14 +1296,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'treecond'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_tree_tags'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'predicate': '1'}, {'column': 'treetag'}, {'column': 'tree_tag_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'tag'}, {'group by': '1'}, {'column': 'treecond'}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1433,14 +1363,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'treecond_text'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_tree_cond'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'predicate': '1'}, {'column': 'treecond'}, {'column': 'treecond_num'}, {'group by': '1'}, {'column': 'treecond_text'}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1505,14 +1430,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'witness_spcode'}, {'select element': '1'}, {'column': 'witness_dbh'}, {'table source item': '1'}, {'table': 'tbl_witnesstrees'}, {'where': '1'}, {'predicate': '1'}, {'column': 'location_id'}, {'order by': '1'}, {'column': 'witness_stake'}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1577,14 +1497,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_can_pos'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'predicate': '1'}, {'column': 'canpos_num'}, {'column': 'canpos'}, {'where': '1'}, {'predicate': '1'}, {'column': 'canpos_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1649,14 +1564,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'canpos_name'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_can_pos'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'predicate': '1'}, {'column': 'canpos_num'}, {'column': 'canpos'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'speciescode'}, {'column': 'spcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'commonname'}, {'group by': '1'}, {'column': 'canpos_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1722,14 +1632,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sitedescription'}, {'select element': '1'}, {'column': 'slope'}, {'select element': '1'}, {'column': 'aspect'}, {'select element': '1'}, {'column': 'slope_shape'}, {'select element': '1'}, {'column': 'elevation'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_topo_position'}, {'predicate': '1'}, {'column': 'topo_position'}, {'column': 'id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'topoposition'}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1794,14 +1699,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'spcode'}, {'select element': '1'}, {'column': 'coverclass_text'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_cover_cls'}, {'predicate': '1'}, {'column': 'cover'}, {'column': 'coverclass_num'}, {'where': '1'}, {'predicate': '1'}, {'column': 'nest_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1868,14 +1768,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'decaystage_descr'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_decaystage'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'predicate': '1'}, {'column': 'decaystage_id'}, {'column': 'decay'}, {'group by': '1'}, {'column': 'decaystage_descr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1938,14 +1833,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_decaystage'}]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -2010,14 +1900,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'length'}, {'select element': '1'}, {'column': 'mpd'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_decaystage'}, {'predicate': '1'}, {'column': 'decay'}, {'column': 'decaystage_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'decaystage_descr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -2082,14 +1967,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'genus'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_r1_restofplot'}, {'predicate': '1'}, {'column': 'r1'}, {'column': 'pres_num'}, {'where': '1'}, {'predicate': '1'}, {'column': 'pres_text'}]</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -2155,14 +2035,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'genus'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'where': '1'}, {'predicate': '1'}, {'column': 'speciesnotes'}, {'group by': '1'}, {'column': 'genus'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2226,14 +2101,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'database_title'}, {'select element': '1'}, {'column': 'file_name'}, {'select element': '1'}, {'column': 'release_notes'}, {'select element': '1'}, {'column': 'author_email'}, {'select element': '1'}, {'column': 'author_org_name'}, {'table source item': '1'}, {'table': 'tsys_app_releases'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'predicate': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2296,14 +2166,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_slope_shape'}]</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2368,14 +2233,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'location_id'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'density'}, {'table source item': '1'}, {'table': 'tbl_seedlings'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'predicate': '1'}, {'group by': '1'}, {'column': 'location_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2440,14 +2300,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'dbh'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'species'}, {'group by': '1'}]</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2511,14 +2366,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'layer'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_roads_and_trails'}, {'group by': '1'}, {'column': 'layer'}]</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2583,14 +2433,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'layer'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_roads_and_trails'}, {'where': '1'}, {'predicate': '1'}, {'column': 'validname'}, {'group by': '1'}, {'column': 'layer'}]</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2654,14 +2499,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'state'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_placenames'}, {'group by': '1'}, {'column': 'state'}]</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2726,14 +2566,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'name'}, {'select element': '1'}, {'column': 'county'}, {'select element': '1'}, {'column': 'state'}, {'select element': '1'}, {'column': 'utme'}, {'select element': '1'}, {'column': 'utmn'}, {'table source item': '1'}, {'table': 'tlu_placenames'}, {'order by': '1'}, {'column': 'utmn'}]</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2798,14 +2633,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pres_text'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_presence'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'predicate': '1'}, {'column': 'pres_num'}, {'column': 'presence_first'}, {'where': '1'}, {'predicate': '1'}, {'column': 'event_id'}, {'group by': '1'}, {'column': 'pres_text'}]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2868,14 +2698,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'max'}, {'column': 'x_coord'}, {'function': 'min'}, {'column': 'x_coord'}, {'select element': '1'}, {'function': 'max'}, {'column': 'y_coord'}, {'function': 'min'}, {'column': 'y_coord'}, {'table source item': '1'}, {'table': 'tbl_locations'}]</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2940,14 +2765,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'genus'}, {'select element': '1'}, {'column': 'species'}, {'select element': '1'}, {'column': 'commonname'}, {'table source item': '1'}, {'table': 'tbl_seedlings'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'order by': '1'}, {'column': 'density'}]</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -3013,14 +2833,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'table source item': '1'}, {'table': 'tbl_seedlings'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'group by': '1'}, {'order by': '1'}, {'function': 'avg'}, {'column': 'density'}]</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -3086,14 +2901,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'commonname'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_tree_tags'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'location_id'}, {'group by': '1'}, {'column': 'commonname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -3159,14 +2969,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'genus'}, {'select element': '1'}, {'column': 'commonname'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_tree_tags'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'elevation'}, {'group by': '1'}, {'column': 'genus'}, {'group by': '1'}, {'column': 'commonname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -3231,14 +3036,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'eco_notes'}, {'select element': '1'}, {'column': 'coord_units'}, {'select element': '1'}, {'column': 'coord_system'}, {'select element': '1'}, {'column': 'datum'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'plot_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3303,14 +3103,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'loc_notes'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'other_disturbance'}]</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3372,11 +3167,6 @@
       <c r="N41" t="inlineStr">
         <is>
           <t>N3</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'event_id'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'event_id'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'column': 'event_id'}]</t>
         </is>
       </c>
     </row>
